--- a/mapping/input_list_MS.xlsx
+++ b/mapping/input_list_MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -31,22 +31,13 @@
     <t>no IRI</t>
   </si>
   <si>
-    <t>{'Mass spectrometry'}</t>
-  </si>
-  <si>
-    <t>{'Wavelength'}</t>
+    <t>{'mass spectrometry'}</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1000268</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000843</t>
-  </si>
-  <si>
-    <t>{'label': 'Mass spectrometry'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Wavelength'}</t>
+    <t>{'label': 'mass spectrometry'}</t>
   </si>
 </sst>
 </file>
@@ -417,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,33 +439,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
